--- a/www/ig/nos/ValueSet-JDV-J07-XdsTypeCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J07-XdsTypeCode-CISIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="248">
   <si>
     <t>Property</t>
   </si>
@@ -33,13 +33,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.1.5.471</t>
+    <t>urn:oid:1.2.250.1.213.1.1.5.471</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T12:00:00+01:00</t>
+    <t>2024-02-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,10 +117,10 @@
     <t>Attestation d'hébergement</t>
   </si>
   <si>
-    <t>ATTEST-VITALE</t>
-  </si>
-  <si>
-    <t>Attestation de carte vitale</t>
+    <t>ATTEST-DROITS-AM</t>
+  </si>
+  <si>
+    <t>Attestation de droits à l’assurance maladie</t>
   </si>
   <si>
     <t>AUTORIS-SOINS</t>
@@ -249,6 +249,12 @@
     <t>Copie pièce d'identité</t>
   </si>
   <si>
+    <t>PRESC-AAT</t>
+  </si>
+  <si>
+    <t>Prescription arrêt de travail</t>
+  </si>
+  <si>
     <t>PRESC-BIO</t>
   </si>
   <si>
@@ -297,6 +303,12 @@
     <t>Fiche contacts</t>
   </si>
   <si>
+    <t>EXPORT_DUI</t>
+  </si>
+  <si>
+    <t>Export du Dossier Usager Informatisé</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -348,144 +360,162 @@
     <t>CR ou fiche de suivi de soins par auxiliaire médical</t>
   </si>
   <si>
-    <t>11526-1</t>
+    <t>15507-7</t>
+  </si>
+  <si>
+    <t>CR de passage aux urgences</t>
+  </si>
+  <si>
+    <t>15508-5</t>
+  </si>
+  <si>
+    <t>CR d'accouchement</t>
+  </si>
+  <si>
+    <t>18776-5</t>
+  </si>
+  <si>
+    <t>Plan personnalisé de soins</t>
+  </si>
+  <si>
+    <t>18748-4</t>
+  </si>
+  <si>
+    <t>CR d'imagerie médicale</t>
+  </si>
+  <si>
+    <t>18761-7</t>
+  </si>
+  <si>
+    <t>Note de transfert (dont lettre de liaison à l'entrée en établissement de soins)</t>
+  </si>
+  <si>
+    <t>28653-4</t>
+  </si>
+  <si>
+    <t>Document du secteur social / médico-social</t>
+  </si>
+  <si>
+    <t>29274-8</t>
+  </si>
+  <si>
+    <t>Mesures de signes vitaux</t>
+  </si>
+  <si>
+    <t>34133-9</t>
+  </si>
+  <si>
+    <t>Synthèse d'épisode de soins</t>
+  </si>
+  <si>
+    <t>34749-2</t>
+  </si>
+  <si>
+    <t>CR de consultation pré-anesthésique</t>
+  </si>
+  <si>
+    <t>34794-8</t>
+  </si>
+  <si>
+    <t>CR de réunion de concertation pluridisciplinaire</t>
+  </si>
+  <si>
+    <t>34842-5</t>
+  </si>
+  <si>
+    <t>Grille d'évaluation médico-social</t>
+  </si>
+  <si>
+    <t>34874-8</t>
+  </si>
+  <si>
+    <t>CR opératoire</t>
+  </si>
+  <si>
+    <t>34875-5</t>
+  </si>
+  <si>
+    <t>Évaluation postopératoire et note de suivi</t>
+  </si>
+  <si>
+    <t>47420-5</t>
+  </si>
+  <si>
+    <t>CR de bilan fonctionnel (par auxiliaire médical)</t>
+  </si>
+  <si>
+    <t>51851-4</t>
+  </si>
+  <si>
+    <t>Document administratif</t>
+  </si>
+  <si>
+    <t>51969-4</t>
+  </si>
+  <si>
+    <t>CR de génétique moléculaire</t>
+  </si>
+  <si>
+    <t>52040-3</t>
+  </si>
+  <si>
+    <t>Document encapsulant une image d'illustration non DICOM</t>
+  </si>
+  <si>
+    <t>55115-0</t>
+  </si>
+  <si>
+    <t>Demande d'actes d'imagerie</t>
+  </si>
+  <si>
+    <t>56445-0</t>
+  </si>
+  <si>
+    <t>Bilan médicamenteux (Officine)</t>
+  </si>
+  <si>
+    <t>56446-8</t>
+  </si>
+  <si>
+    <t>Notification de rendez-vous</t>
+  </si>
+  <si>
+    <t>57828-6</t>
+  </si>
+  <si>
+    <t>Prescription (autre)</t>
+  </si>
+  <si>
+    <t>57832-8</t>
+  </si>
+  <si>
+    <t>Prescription de soins</t>
+  </si>
+  <si>
+    <t>57833-6</t>
+  </si>
+  <si>
+    <t>Prescription de produits de santé</t>
+  </si>
+  <si>
+    <t>59283-2</t>
+  </si>
+  <si>
+    <t>CR d'examen de l'enfant</t>
+  </si>
+  <si>
+    <t>59284-0</t>
+  </si>
+  <si>
+    <t>Attestation de consentement</t>
+  </si>
+  <si>
+    <t>60568-3</t>
   </si>
   <si>
     <t>CR d'anatomie et de cytologie pathologiques</t>
   </si>
   <si>
-    <t>15507-7</t>
-  </si>
-  <si>
-    <t>CR de passage aux urgences</t>
-  </si>
-  <si>
-    <t>15508-5</t>
-  </si>
-  <si>
-    <t>CR d'accouchement</t>
-  </si>
-  <si>
-    <t>18776-5</t>
-  </si>
-  <si>
-    <t>Plan personnalisé de soins</t>
-  </si>
-  <si>
-    <t>18748-4</t>
-  </si>
-  <si>
-    <t>CR d'imagerie médicale</t>
-  </si>
-  <si>
-    <t>18761-7</t>
-  </si>
-  <si>
-    <t>Note de transfert (dont lettre de liaison à l'entrée en établissement de soins)</t>
-  </si>
-  <si>
-    <t>28653-4</t>
-  </si>
-  <si>
-    <t>Document du secteur social / médico-social</t>
-  </si>
-  <si>
-    <t>29274-8</t>
-  </si>
-  <si>
-    <t>Mesures de signes vitaux</t>
-  </si>
-  <si>
-    <t>34133-9</t>
-  </si>
-  <si>
-    <t>Synthèse d'épisode de soins</t>
-  </si>
-  <si>
-    <t>34749-2</t>
-  </si>
-  <si>
-    <t>CR de consultation pré-anesthésique</t>
-  </si>
-  <si>
-    <t>34794-8</t>
-  </si>
-  <si>
-    <t>CR de réunion de concertation pluridisciplinaire</t>
-  </si>
-  <si>
-    <t>34842-5</t>
-  </si>
-  <si>
-    <t>Grille d'évaluation médico-social</t>
-  </si>
-  <si>
-    <t>34874-8</t>
-  </si>
-  <si>
-    <t>CR opératoire</t>
-  </si>
-  <si>
-    <t>34875-5</t>
-  </si>
-  <si>
-    <t>Évaluation postopératoire et note de suivi</t>
-  </si>
-  <si>
-    <t>47420-5</t>
-  </si>
-  <si>
-    <t>CR de bilan fonctionnel (par auxiliaire médical)</t>
-  </si>
-  <si>
-    <t>51969-4</t>
-  </si>
-  <si>
-    <t>CR de génétique moléculaire</t>
-  </si>
-  <si>
-    <t>52040-3</t>
-  </si>
-  <si>
-    <t>Document encapsulant une image d'illustration non DICOM</t>
-  </si>
-  <si>
-    <t>55115-0</t>
-  </si>
-  <si>
-    <t>Demande d'actes d'imagerie</t>
-  </si>
-  <si>
-    <t>56445-0</t>
-  </si>
-  <si>
-    <t>Bilan médicamenteux (Officine)</t>
-  </si>
-  <si>
-    <t>57828-6</t>
-  </si>
-  <si>
-    <t>Prescription (autre)</t>
-  </si>
-  <si>
-    <t>57832-8</t>
-  </si>
-  <si>
-    <t>Prescription de soins</t>
-  </si>
-  <si>
-    <t>57833-6</t>
-  </si>
-  <si>
-    <t>Prescription de produits de santé</t>
-  </si>
-  <si>
-    <t>59283-2</t>
-  </si>
-  <si>
-    <t>CR d'examen de l'enfant</t>
-  </si>
-  <si>
     <t>60591-5</t>
   </si>
   <si>
@@ -504,18 +534,6 @@
     <t>Intervention pharmaceutique</t>
   </si>
   <si>
-    <t>61358-8</t>
-  </si>
-  <si>
-    <t>Consentement chirurgical</t>
-  </si>
-  <si>
-    <t>61359-6</t>
-  </si>
-  <si>
-    <t>Consentement anesthésique</t>
-  </si>
-  <si>
     <t>67851-6</t>
   </si>
   <si>
@@ -628,6 +646,12 @@
   </si>
   <si>
     <t>Schéma dentaire</t>
+  </si>
+  <si>
+    <t>83869-8</t>
+  </si>
+  <si>
+    <t>Plan personnalisé de prévention</t>
   </si>
   <si>
     <t>83901-9</t>
@@ -998,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1285,15 +1309,31 @@
         <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1303,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1323,538 +1363,554 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>93</v>
+        <v>230</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>93</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1884,26 +1940,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -1933,58 +1989,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J07-XdsTypeCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J07-XdsTypeCode-CISIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="259">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-23T12:00:00+01:00</t>
+    <t>2024-07-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -120,7 +126,7 @@
     <t>ATTEST-DROITS-AM</t>
   </si>
   <si>
-    <t>Attestation de droits à l’assurance maladie</t>
+    <t>Attestation de droits à l'assurance maladie</t>
   </si>
   <si>
     <t>AUTORIS-SOINS</t>
@@ -309,9 +315,6 @@
     <t>Export du Dossier Usager Informatisé</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
@@ -390,6 +393,12 @@
     <t>Note de transfert (dont lettre de liaison à l'entrée en établissement de soins)</t>
   </si>
   <si>
+    <t>28617-9</t>
+  </si>
+  <si>
+    <t>Bilan bucco-dentaire</t>
+  </si>
+  <si>
     <t>28653-4</t>
   </si>
   <si>
@@ -402,6 +411,12 @@
     <t>Mesures de signes vitaux</t>
   </si>
   <si>
+    <t>34120-6</t>
+  </si>
+  <si>
+    <t>Bilan par auxiliaire médical</t>
+  </si>
+  <si>
     <t>34133-9</t>
   </si>
   <si>
@@ -441,7 +456,7 @@
     <t>47420-5</t>
   </si>
   <si>
-    <t>CR de bilan fonctionnel (par auxiliaire médical)</t>
+    <t>CR de bilan fonctionnel</t>
   </si>
   <si>
     <t>51851-4</t>
@@ -510,6 +525,12 @@
     <t>Attestation de consentement</t>
   </si>
   <si>
+    <t>60280-5</t>
+  </si>
+  <si>
+    <t>Fiche de retour du service des urgences</t>
+  </si>
+  <si>
     <t>60568-3</t>
   </si>
   <si>
@@ -519,7 +540,7 @@
     <t>60591-5</t>
   </si>
   <si>
-    <t>Synthèse du dossier médical</t>
+    <t>Synthèse médicale</t>
   </si>
   <si>
     <t>60593-1</t>
@@ -558,10 +579,16 @@
     <t>CR d'acte diagnostique (autre)</t>
   </si>
   <si>
+    <t>78341-5</t>
+  </si>
+  <si>
+    <t>Fiche de transfert vers le service des urgences</t>
+  </si>
+  <si>
     <t>74207-2</t>
   </si>
   <si>
-    <t>Dossier de liaison d'urgence</t>
+    <t>Document de liaison d'urgence</t>
   </si>
   <si>
     <t>74465-6</t>
@@ -717,7 +744,7 @@
     <t>96173-0</t>
   </si>
   <si>
-    <t>Attestation de dépistage</t>
+    <t>Test rapide d'orientation diagnostique</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_A04-Loinc/FHIR/TRE-A04-Loinc</t>
@@ -760,6 +787,12 @@
   </si>
   <si>
     <t>Synthèse Enfant en Maternité</t>
+  </si>
+  <si>
+    <t>89233-1</t>
+  </si>
+  <si>
+    <t>CR de grossesse</t>
   </si>
 </sst>
 </file>
@@ -893,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -999,20 +1032,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1034,306 +1075,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1355,562 +1396,594 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>97</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -1932,34 +2005,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +2042,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1981,66 +2054,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>97</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>234</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J07-XdsTypeCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J07-XdsTypeCode-CISIS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="248">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +39,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T12:00:00+01:00</t>
+    <t>2024-02-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,246 +75,243 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>XDS typeCode CI-SIS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>ATTEST-ASS-COMPL</t>
+  </si>
+  <si>
+    <t>Attestation assurance complémentaire</t>
+  </si>
+  <si>
+    <t>ATTEST-RESID</t>
+  </si>
+  <si>
+    <t>Attestation de résidence</t>
+  </si>
+  <si>
+    <t>ATTEST-HEBGT</t>
+  </si>
+  <si>
+    <t>Attestation d'hébergement</t>
+  </si>
+  <si>
+    <t>ATTEST-DROITS-AM</t>
+  </si>
+  <si>
+    <t>Attestation de droits à l’assurance maladie</t>
+  </si>
+  <si>
+    <t>AUTORIS-SOINS</t>
+  </si>
+  <si>
+    <t>Autorisation de soins et actes non usuels sanitaires</t>
+  </si>
+  <si>
+    <t>BIL_AUTO</t>
+  </si>
+  <si>
+    <t>CR de bilan d'évaluation de la perte d'autonomie</t>
+  </si>
+  <si>
+    <t>CERT_DECL</t>
+  </si>
+  <si>
+    <t>Certificat, déclaration</t>
+  </si>
+  <si>
+    <t>DISP_AUT</t>
+  </si>
+  <si>
+    <t>Dispensation (autre)</t>
+  </si>
+  <si>
+    <t>EXPPAT_1</t>
+  </si>
+  <si>
+    <t>Volontés et droits du patient</t>
+  </si>
+  <si>
+    <t>EXPPAT_2</t>
+  </si>
+  <si>
+    <t>Autre document du patient</t>
+  </si>
+  <si>
+    <t>EXPPAT_3</t>
+  </si>
+  <si>
+    <t>Directives anticipées</t>
+  </si>
+  <si>
+    <t>IMG-KOS</t>
+  </si>
+  <si>
+    <t>Reference d'objets d'un examen d'imagerie</t>
+  </si>
+  <si>
+    <t>PROT_ALD</t>
+  </si>
+  <si>
+    <t>Protocole de soins ALD</t>
+  </si>
+  <si>
+    <t>REMB</t>
+  </si>
+  <si>
+    <t>Données de remboursement</t>
+  </si>
+  <si>
+    <t>SYNTH</t>
+  </si>
+  <si>
+    <t>Synthèse</t>
+  </si>
+  <si>
+    <t>DOCPAT01</t>
+  </si>
+  <si>
+    <t>Synthèse déposée par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT02</t>
+  </si>
+  <si>
+    <t>Traitement ou document de soins déposé par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT03</t>
+  </si>
+  <si>
+    <t>CR déposé par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT04</t>
+  </si>
+  <si>
+    <t>Imagerie déposée par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT05</t>
+  </si>
+  <si>
+    <t>CR de biologie déposé par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT06</t>
+  </si>
+  <si>
+    <t>CR de prévention déposé par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT07</t>
+  </si>
+  <si>
+    <t>Certificat déposé par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT08</t>
+  </si>
+  <si>
+    <t>Profil médical Mon espace santé</t>
+  </si>
+  <si>
+    <t>DOCPAT09</t>
+  </si>
+  <si>
+    <t>Document administratif déposé par le patient</t>
+  </si>
+  <si>
+    <t>PIECE-IDENTITE</t>
+  </si>
+  <si>
+    <t>Copie pièce d'identité</t>
+  </si>
+  <si>
+    <t>PRESC-AAT</t>
+  </si>
+  <si>
+    <t>Prescription arrêt de travail</t>
+  </si>
+  <si>
+    <t>PRESC-BIO</t>
+  </si>
+  <si>
+    <t>Prescription d'actes de biologie médicale</t>
+  </si>
+  <si>
+    <t>PRESC-KINE</t>
+  </si>
+  <si>
+    <t>Prescription d'actes de kinésithérapie</t>
+  </si>
+  <si>
+    <t>PRESC-INF</t>
+  </si>
+  <si>
+    <t>Prescription d'actes infirmiers</t>
+  </si>
+  <si>
+    <t>PRESC-PEDI</t>
+  </si>
+  <si>
+    <t>Prescription d'actes de pédicurie</t>
+  </si>
+  <si>
+    <t>PRESC-ORTHOPHO</t>
+  </si>
+  <si>
+    <t>Prescription d'actes d'orthophonie</t>
+  </si>
+  <si>
+    <t>PRESC-ORTHOPTIE</t>
+  </si>
+  <si>
+    <t>Prescription d'actes d'orthoptie</t>
+  </si>
+  <si>
+    <t>FEUILLE-DE-STYLE</t>
+  </si>
+  <si>
+    <t>Feuille de style</t>
+  </si>
+  <si>
+    <t>FICHE-CONTACTS</t>
+  </si>
+  <si>
+    <t>Fiche contacts</t>
+  </si>
+  <si>
+    <t>EXPORT_DUI</t>
+  </si>
+  <si>
+    <t>Export du Dossier Usager Informatisé</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>XDS typeCode CI-SIS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>ATTEST-ASS-COMPL</t>
-  </si>
-  <si>
-    <t>Attestation assurance complémentaire</t>
-  </si>
-  <si>
-    <t>ATTEST-RESID</t>
-  </si>
-  <si>
-    <t>Attestation de résidence</t>
-  </si>
-  <si>
-    <t>ATTEST-HEBGT</t>
-  </si>
-  <si>
-    <t>Attestation d'hébergement</t>
-  </si>
-  <si>
-    <t>ATTEST-DROITS-AM</t>
-  </si>
-  <si>
-    <t>Attestation de droits à l'assurance maladie</t>
-  </si>
-  <si>
-    <t>AUTORIS-SOINS</t>
-  </si>
-  <si>
-    <t>Autorisation de soins et actes non usuels sanitaires</t>
-  </si>
-  <si>
-    <t>BIL_AUTO</t>
-  </si>
-  <si>
-    <t>CR de bilan d'évaluation de la perte d'autonomie</t>
-  </si>
-  <si>
-    <t>CERT_DECL</t>
-  </si>
-  <si>
-    <t>Certificat, déclaration</t>
-  </si>
-  <si>
-    <t>DISP_AUT</t>
-  </si>
-  <si>
-    <t>Dispensation (autre)</t>
-  </si>
-  <si>
-    <t>EXPPAT_1</t>
-  </si>
-  <si>
-    <t>Volontés et droits du patient</t>
-  </si>
-  <si>
-    <t>EXPPAT_2</t>
-  </si>
-  <si>
-    <t>Autre document du patient</t>
-  </si>
-  <si>
-    <t>EXPPAT_3</t>
-  </si>
-  <si>
-    <t>Directives anticipées</t>
-  </si>
-  <si>
-    <t>IMG-KOS</t>
-  </si>
-  <si>
-    <t>Reference d'objets d'un examen d'imagerie</t>
-  </si>
-  <si>
-    <t>PROT_ALD</t>
-  </si>
-  <si>
-    <t>Protocole de soins ALD</t>
-  </si>
-  <si>
-    <t>REMB</t>
-  </si>
-  <si>
-    <t>Données de remboursement</t>
-  </si>
-  <si>
-    <t>SYNTH</t>
-  </si>
-  <si>
-    <t>Synthèse</t>
-  </si>
-  <si>
-    <t>DOCPAT01</t>
-  </si>
-  <si>
-    <t>Synthèse déposée par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT02</t>
-  </si>
-  <si>
-    <t>Traitement ou document de soins déposé par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT03</t>
-  </si>
-  <si>
-    <t>CR déposé par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT04</t>
-  </si>
-  <si>
-    <t>Imagerie déposée par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT05</t>
-  </si>
-  <si>
-    <t>CR de biologie déposé par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT06</t>
-  </si>
-  <si>
-    <t>CR de prévention déposé par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT07</t>
-  </si>
-  <si>
-    <t>Certificat déposé par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT08</t>
-  </si>
-  <si>
-    <t>Profil médical Mon espace santé</t>
-  </si>
-  <si>
-    <t>DOCPAT09</t>
-  </si>
-  <si>
-    <t>Document administratif déposé par le patient</t>
-  </si>
-  <si>
-    <t>PIECE-IDENTITE</t>
-  </si>
-  <si>
-    <t>Copie pièce d'identité</t>
-  </si>
-  <si>
-    <t>PRESC-AAT</t>
-  </si>
-  <si>
-    <t>Prescription arrêt de travail</t>
-  </si>
-  <si>
-    <t>PRESC-BIO</t>
-  </si>
-  <si>
-    <t>Prescription d'actes de biologie médicale</t>
-  </si>
-  <si>
-    <t>PRESC-KINE</t>
-  </si>
-  <si>
-    <t>Prescription d'actes de kinésithérapie</t>
-  </si>
-  <si>
-    <t>PRESC-INF</t>
-  </si>
-  <si>
-    <t>Prescription d'actes infirmiers</t>
-  </si>
-  <si>
-    <t>PRESC-PEDI</t>
-  </si>
-  <si>
-    <t>Prescription d'actes de pédicurie</t>
-  </si>
-  <si>
-    <t>PRESC-ORTHOPHO</t>
-  </si>
-  <si>
-    <t>Prescription d'actes d'orthophonie</t>
-  </si>
-  <si>
-    <t>PRESC-ORTHOPTIE</t>
-  </si>
-  <si>
-    <t>Prescription d'actes d'orthoptie</t>
-  </si>
-  <si>
-    <t>FEUILLE-DE-STYLE</t>
-  </si>
-  <si>
-    <t>Feuille de style</t>
-  </si>
-  <si>
-    <t>FICHE-CONTACTS</t>
-  </si>
-  <si>
-    <t>Fiche contacts</t>
-  </si>
-  <si>
-    <t>EXPORT_DUI</t>
-  </si>
-  <si>
-    <t>Export du Dossier Usager Informatisé</t>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
@@ -393,12 +390,6 @@
     <t>Note de transfert (dont lettre de liaison à l'entrée en établissement de soins)</t>
   </si>
   <si>
-    <t>28617-9</t>
-  </si>
-  <si>
-    <t>Bilan bucco-dentaire</t>
-  </si>
-  <si>
     <t>28653-4</t>
   </si>
   <si>
@@ -411,12 +402,6 @@
     <t>Mesures de signes vitaux</t>
   </si>
   <si>
-    <t>34120-6</t>
-  </si>
-  <si>
-    <t>Bilan par auxiliaire médical</t>
-  </si>
-  <si>
     <t>34133-9</t>
   </si>
   <si>
@@ -456,7 +441,7 @@
     <t>47420-5</t>
   </si>
   <si>
-    <t>CR de bilan fonctionnel</t>
+    <t>CR de bilan fonctionnel (par auxiliaire médical)</t>
   </si>
   <si>
     <t>51851-4</t>
@@ -525,12 +510,6 @@
     <t>Attestation de consentement</t>
   </si>
   <si>
-    <t>60280-5</t>
-  </si>
-  <si>
-    <t>Fiche de retour du service des urgences</t>
-  </si>
-  <si>
     <t>60568-3</t>
   </si>
   <si>
@@ -540,7 +519,7 @@
     <t>60591-5</t>
   </si>
   <si>
-    <t>Synthèse médicale</t>
+    <t>Synthèse du dossier médical</t>
   </si>
   <si>
     <t>60593-1</t>
@@ -579,16 +558,10 @@
     <t>CR d'acte diagnostique (autre)</t>
   </si>
   <si>
-    <t>78341-5</t>
-  </si>
-  <si>
-    <t>Fiche de transfert vers le service des urgences</t>
-  </si>
-  <si>
     <t>74207-2</t>
   </si>
   <si>
-    <t>Document de liaison d'urgence</t>
+    <t>Dossier de liaison d'urgence</t>
   </si>
   <si>
     <t>74465-6</t>
@@ -744,7 +717,7 @@
     <t>96173-0</t>
   </si>
   <si>
-    <t>Test rapide d'orientation diagnostique</t>
+    <t>Attestation de dépistage</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_A04-Loinc/FHIR/TRE-A04-Loinc</t>
@@ -787,12 +760,6 @@
   </si>
   <si>
     <t>Synthèse Enfant en Maternité</t>
-  </si>
-  <si>
-    <t>89233-1</t>
-  </si>
-  <si>
-    <t>CR de grossesse</t>
   </si>
 </sst>
 </file>
@@ -926,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1032,28 +999,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1075,306 +1034,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1396,594 +1355,562 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>140</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>146</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>158</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>160</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>172</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>180</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>182</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>188</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>202</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>220</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>235</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>236</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2005,34 +1932,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2042,7 +1969,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2054,74 +1981,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>258</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J07-XdsTypeCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J07-XdsTypeCode-CISIS.xlsx
@@ -8,15 +8,14 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from TRE_A05-TypeDocC" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE_A04-Loinc" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from LOINC" r:id="rId5" sheetId="3"/>
     <sheet name="Include from TRE_A12-Nomencla" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from TRE_A04-Loinc 2" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="260">
   <si>
     <t>Property</t>
   </si>
@@ -39,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T12:00:00+01:00</t>
+    <t>2024-09-27T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,243 +77,240 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>XDS typeCode CI-SIS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>ATTEST-ASS-COMPL</t>
+  </si>
+  <si>
+    <t>Attestation assurance complémentaire</t>
+  </si>
+  <si>
+    <t>ATTEST-RESID</t>
+  </si>
+  <si>
+    <t>Attestation de résidence</t>
+  </si>
+  <si>
+    <t>ATTEST-HEBGT</t>
+  </si>
+  <si>
+    <t>Attestation d'hébergement</t>
+  </si>
+  <si>
+    <t>ATTEST-DROITS-AM</t>
+  </si>
+  <si>
+    <t>Attestation de droits à l'assurance maladie</t>
+  </si>
+  <si>
+    <t>AUTORIS-SOINS</t>
+  </si>
+  <si>
+    <t>Autorisation de soins et actes non usuels sanitaires</t>
+  </si>
+  <si>
+    <t>BIL_AUTO</t>
+  </si>
+  <si>
+    <t>CR de bilan d'évaluation de la perte d'autonomie</t>
+  </si>
+  <si>
+    <t>CERT_DECL</t>
+  </si>
+  <si>
+    <t>Certificat, déclaration</t>
+  </si>
+  <si>
+    <t>DISP_AUT</t>
+  </si>
+  <si>
+    <t>Dispensation (autre)</t>
+  </si>
+  <si>
+    <t>EXPPAT_1</t>
+  </si>
+  <si>
+    <t>Volontés et droits du patient</t>
+  </si>
+  <si>
+    <t>EXPPAT_2</t>
+  </si>
+  <si>
+    <t>Autre document du patient</t>
+  </si>
+  <si>
+    <t>EXPPAT_3</t>
+  </si>
+  <si>
+    <t>Directives anticipées</t>
+  </si>
+  <si>
+    <t>IMG-KOS</t>
+  </si>
+  <si>
+    <t>Reference d'objets d'un examen d'imagerie</t>
+  </si>
+  <si>
+    <t>PROT_ALD</t>
+  </si>
+  <si>
+    <t>Protocole de soins ALD</t>
+  </si>
+  <si>
+    <t>REMB</t>
+  </si>
+  <si>
+    <t>Données de remboursement</t>
+  </si>
+  <si>
+    <t>SYNTH</t>
+  </si>
+  <si>
+    <t>Synthèse</t>
+  </si>
+  <si>
+    <t>DOCPAT01</t>
+  </si>
+  <si>
+    <t>Synthèse déposée par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT02</t>
+  </si>
+  <si>
+    <t>Traitement ou document de soins déposé par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT03</t>
+  </si>
+  <si>
+    <t>CR déposé par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT04</t>
+  </si>
+  <si>
+    <t>Imagerie déposée par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT05</t>
+  </si>
+  <si>
+    <t>CR de biologie déposé par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT06</t>
+  </si>
+  <si>
+    <t>CR de prévention déposé par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT07</t>
+  </si>
+  <si>
+    <t>Certificat déposé par le patient</t>
+  </si>
+  <si>
+    <t>DOCPAT08</t>
+  </si>
+  <si>
+    <t>Profil médical Mon espace santé</t>
+  </si>
+  <si>
+    <t>DOCPAT09</t>
+  </si>
+  <si>
+    <t>Document administratif déposé par le patient</t>
+  </si>
+  <si>
+    <t>PIECE-IDENTITE</t>
+  </si>
+  <si>
+    <t>Copie pièce d'identité</t>
+  </si>
+  <si>
+    <t>PRESC-AAT</t>
+  </si>
+  <si>
+    <t>Prescription arrêt de travail</t>
+  </si>
+  <si>
+    <t>PRESC-BIO</t>
+  </si>
+  <si>
+    <t>Prescription d'actes de biologie médicale</t>
+  </si>
+  <si>
+    <t>PRESC-KINE</t>
+  </si>
+  <si>
+    <t>Prescription d'actes de kinésithérapie</t>
+  </si>
+  <si>
+    <t>PRESC-INF</t>
+  </si>
+  <si>
+    <t>Prescription d'actes infirmiers</t>
+  </si>
+  <si>
+    <t>PRESC-PEDI</t>
+  </si>
+  <si>
+    <t>Prescription d'actes de pédicurie</t>
+  </si>
+  <si>
+    <t>PRESC-ORTHOPHO</t>
+  </si>
+  <si>
+    <t>Prescription d'actes d'orthophonie</t>
+  </si>
+  <si>
+    <t>PRESC-ORTHOPTIE</t>
+  </si>
+  <si>
+    <t>Prescription d'actes d'orthoptie</t>
+  </si>
+  <si>
+    <t>FEUILLE-DE-STYLE</t>
+  </si>
+  <si>
+    <t>Feuille de style</t>
+  </si>
+  <si>
+    <t>FICHE-CONTACTS</t>
+  </si>
+  <si>
+    <t>Fiche contacts</t>
+  </si>
+  <si>
+    <t>EXPORT_DUI</t>
+  </si>
+  <si>
+    <t>Export du Dossier Usager Informatisé</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>XDS typeCode CI-SIS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>ATTEST-ASS-COMPL</t>
-  </si>
-  <si>
-    <t>Attestation assurance complémentaire</t>
-  </si>
-  <si>
-    <t>ATTEST-RESID</t>
-  </si>
-  <si>
-    <t>Attestation de résidence</t>
-  </si>
-  <si>
-    <t>ATTEST-HEBGT</t>
-  </si>
-  <si>
-    <t>Attestation d'hébergement</t>
-  </si>
-  <si>
-    <t>ATTEST-DROITS-AM</t>
-  </si>
-  <si>
-    <t>Attestation de droits à l'assurance maladie</t>
-  </si>
-  <si>
-    <t>AUTORIS-SOINS</t>
-  </si>
-  <si>
-    <t>Autorisation de soins et actes non usuels sanitaires</t>
-  </si>
-  <si>
-    <t>BIL_AUTO</t>
-  </si>
-  <si>
-    <t>CR de bilan d'évaluation de la perte d'autonomie</t>
-  </si>
-  <si>
-    <t>CERT_DECL</t>
-  </si>
-  <si>
-    <t>Certificat, déclaration</t>
-  </si>
-  <si>
-    <t>DISP_AUT</t>
-  </si>
-  <si>
-    <t>Dispensation (autre)</t>
-  </si>
-  <si>
-    <t>EXPPAT_1</t>
-  </si>
-  <si>
-    <t>Volontés et droits du patient</t>
-  </si>
-  <si>
-    <t>EXPPAT_2</t>
-  </si>
-  <si>
-    <t>Autre document du patient</t>
-  </si>
-  <si>
-    <t>EXPPAT_3</t>
-  </si>
-  <si>
-    <t>Directives anticipées</t>
-  </si>
-  <si>
-    <t>IMG-KOS</t>
-  </si>
-  <si>
-    <t>Reference d'objets d'un examen d'imagerie</t>
-  </si>
-  <si>
-    <t>PROT_ALD</t>
-  </si>
-  <si>
-    <t>Protocole de soins ALD</t>
-  </si>
-  <si>
-    <t>REMB</t>
-  </si>
-  <si>
-    <t>Données de remboursement</t>
-  </si>
-  <si>
-    <t>SYNTH</t>
-  </si>
-  <si>
-    <t>Synthèse</t>
-  </si>
-  <si>
-    <t>DOCPAT01</t>
-  </si>
-  <si>
-    <t>Synthèse déposée par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT02</t>
-  </si>
-  <si>
-    <t>Traitement ou document de soins déposé par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT03</t>
-  </si>
-  <si>
-    <t>CR déposé par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT04</t>
-  </si>
-  <si>
-    <t>Imagerie déposée par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT05</t>
-  </si>
-  <si>
-    <t>CR de biologie déposé par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT06</t>
-  </si>
-  <si>
-    <t>CR de prévention déposé par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT07</t>
-  </si>
-  <si>
-    <t>Certificat déposé par le patient</t>
-  </si>
-  <si>
-    <t>DOCPAT08</t>
-  </si>
-  <si>
-    <t>Profil médical Mon espace santé</t>
-  </si>
-  <si>
-    <t>DOCPAT09</t>
-  </si>
-  <si>
-    <t>Document administratif déposé par le patient</t>
-  </si>
-  <si>
-    <t>PIECE-IDENTITE</t>
-  </si>
-  <si>
-    <t>Copie pièce d'identité</t>
-  </si>
-  <si>
-    <t>PRESC-AAT</t>
-  </si>
-  <si>
-    <t>Prescription arrêt de travail</t>
-  </si>
-  <si>
-    <t>PRESC-BIO</t>
-  </si>
-  <si>
-    <t>Prescription d'actes de biologie médicale</t>
-  </si>
-  <si>
-    <t>PRESC-KINE</t>
-  </si>
-  <si>
-    <t>Prescription d'actes de kinésithérapie</t>
-  </si>
-  <si>
-    <t>PRESC-INF</t>
-  </si>
-  <si>
-    <t>Prescription d'actes infirmiers</t>
-  </si>
-  <si>
-    <t>PRESC-PEDI</t>
-  </si>
-  <si>
-    <t>Prescription d'actes de pédicurie</t>
-  </si>
-  <si>
-    <t>PRESC-ORTHOPHO</t>
-  </si>
-  <si>
-    <t>Prescription d'actes d'orthophonie</t>
-  </si>
-  <si>
-    <t>PRESC-ORTHOPTIE</t>
-  </si>
-  <si>
-    <t>Prescription d'actes d'orthoptie</t>
-  </si>
-  <si>
-    <t>FEUILLE-DE-STYLE</t>
-  </si>
-  <si>
-    <t>Feuille de style</t>
-  </si>
-  <si>
-    <t>FICHE-CONTACTS</t>
-  </si>
-  <si>
-    <t>Fiche contacts</t>
-  </si>
-  <si>
-    <t>EXPORT_DUI</t>
-  </si>
-  <si>
-    <t>Export du Dossier Usager Informatisé</t>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
@@ -414,7 +410,7 @@
     <t>34120-6</t>
   </si>
   <si>
-    <t>Bilan par auxiliaire médical</t>
+    <t>Bilan par professionnel de santé</t>
   </si>
   <si>
     <t>34133-9</t>
@@ -747,7 +743,49 @@
     <t>Test rapide d'orientation diagnostique</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_A04-Loinc/FHIR/TRE-A04-Loinc</t>
+    <t>57055-6</t>
+  </si>
+  <si>
+    <t>Synthèse antepartum</t>
+  </si>
+  <si>
+    <t>57057-2</t>
+  </si>
+  <si>
+    <t>Synthèse Salle de Naissance Mère</t>
+  </si>
+  <si>
+    <t>57075-4</t>
+  </si>
+  <si>
+    <t>Synthèse Salle de Naissance Enfant</t>
+  </si>
+  <si>
+    <t>89235-6</t>
+  </si>
+  <si>
+    <t>Synthèse Suites de Couches Mère</t>
+  </si>
+  <si>
+    <t>78489-2</t>
+  </si>
+  <si>
+    <t>Synthèse Enfant en Maternité</t>
+  </si>
+  <si>
+    <t>89233-1</t>
+  </si>
+  <si>
+    <t>CR de grossesse</t>
+  </si>
+  <si>
+    <t>101881-1</t>
+  </si>
+  <si>
+    <t>Carte d'implant</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>E1762</t>
@@ -757,42 +795,6 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_A12-NomenclatureASTM/FHIR/TRE-A12-NomenclatureASTM</t>
-  </si>
-  <si>
-    <t>57055-6</t>
-  </si>
-  <si>
-    <t>Synthèse antepartum</t>
-  </si>
-  <si>
-    <t>57057-2</t>
-  </si>
-  <si>
-    <t>Synthèse Salle de Naissance Mère</t>
-  </si>
-  <si>
-    <t>57075-4</t>
-  </si>
-  <si>
-    <t>Synthèse Salle de Naissance Enfant</t>
-  </si>
-  <si>
-    <t>89235-6</t>
-  </si>
-  <si>
-    <t>Synthèse Suites de Couches Mère</t>
-  </si>
-  <si>
-    <t>78489-2</t>
-  </si>
-  <si>
-    <t>Synthèse Enfant en Maternité</t>
-  </si>
-  <si>
-    <t>89233-1</t>
-  </si>
-  <si>
-    <t>CR de grossesse</t>
   </si>
 </sst>
 </file>
@@ -926,7 +928,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1032,28 +1034,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1075,306 +1069,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1378,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1396,594 +1390,650 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>102</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>130</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>138</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>140</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>142</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>146</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>152</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>158</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>160</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>162</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>164</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>172</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>176</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>178</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>180</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>182</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>186</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>188</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B46" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>190</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B48" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B49" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>198</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B51" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>202</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B54" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>208</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>214</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>220</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>222</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>228</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>230</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>238</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>21</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>99</v>
+        <v>244</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2005,123 +2055,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>246</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J07-XdsTypeCode-CISIS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J07-XdsTypeCode-CISIS.xlsx
@@ -38,7 +38,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
